--- a/biology/Zoologie/Plecia_angustiventris/Plecia_angustiventris.xlsx
+++ b/biology/Zoologie/Plecia_angustiventris/Plecia_angustiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia angustiventris est une espèce fossile de mouches ou diptères de la famille des Bibionidae ou « mouches de Saint-Marc » (ou mouches noires), et du genre Plecia.
 </t>
@@ -511,60 +523,278 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Plecia angustiventris est publiée par Nicolas Théobald en 1937[1]. 
-Fossiles
-L'holotype C79 de l'ère Cénozoïque, et de l'époque Éocène (37,2 à 33,9 Ma.) faisait partie de la collection du muséum de Marseille et vient de la formation de Célas près d'Alès dans le Gard[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Plecia angustiventris est publiée par Nicolas Théobald en 1937. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype C79 de l'ère Cénozoïque, et de l'époque Éocène (37,2 à 33,9 Ma.) faisait partie de la collection du muséum de Marseille et vient de la formation de Célas près d'Alès dans le Gard. 
 Cet holotype à plusieurs paratypes :
 « C86 coll. Mus. Marseille, Insecte bien conservé, yeux à facettes visibles, Célas. 
 C89 coll. Mus. Marseille, montre bien les pattes, deux yeux composés et une antenne cordiforme, Célas.
 Ni6, 4, 11 coll. Mus. Nîmes, très beaux exemplaires, Les Fumades (Gard). 
-Ni1 + 10 coll. Mus. Nîmes, empreinte et contre empreinte, Les Fumades (Gard). »[2].
-Confirmation du genre Plecia
-Cette espèce est confirmée dans le genre Plecia en 2017 par Skartveit et Nel[3]. 
-Étymologie
-L'épithète spécifique angustiventris signifie en latin « ventre étroit ».
-Espèce synonyme
-Selon Paleobiology Database et GBIF en 2023, cette espèce a un synonyme †Plecia angustipennis Handlirsch 1910[4],[5] avec deux fossiles de la Colombie britannique au Canada[4]. The Taxonomicon ne référence pas ce synonyme.
+Ni1 + 10 coll. Mus. Nîmes, empreinte et contre empreinte, Les Fumades (Gard). ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Plecia_angustiventris</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Plecia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est confirmée dans le genre Plecia en 2017 par Skartveit et Nel. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique angustiventris signifie en latin « ventre étroit ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèce synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database et GBIF en 2023, cette espèce a un synonyme †Plecia angustipennis Handlirsch 1910, avec deux fossiles de la Colombie britannique au Canada. The Taxonomicon ne référence pas ce synonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[2],[note 1] :
-« Insecte couché sur le côté. Corps de teinte noire, ailes brun noir. Tête arrondie, légèrement allongée dans le sens vertical, œil ovale ; deux antennes de 0,5 mm, homonomes. Thorax ovale. Ailes atteignant l'extrémité de l'abdomen, Rs bifurqué. Les deux ailes se recouvrent en partie. Pattes velues, tibias éperonnés. Abdomen nettement segmenté, se rétrécit vers l'arrière. Arceaux dorsaux plus foncés que les parties ventrales. »[2].
-Dimensions
-La longueur totale est de 8 mm ; la longueur des ailes 6 mm ; la longueur de la tête 0,6 mm pour une hauteur de 0,7 mm; la longueur du thorax 3 mm pour une hauteur de 2 mm ; la longueur de l'abdomen 6 mm pour une hauteur de 2,5 mm[2].
-Affinités
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] :
+« Insecte couché sur le côté. Corps de teinte noire, ailes brun noir. Tête arrondie, légèrement allongée dans le sens vertical, œil ovale ; deux antennes de 0,5 mm, homonomes. Thorax ovale. Ailes atteignant l'extrémité de l'abdomen, Rs bifurqué. Les deux ailes se recouvrent en partie. Pattes velues, tibias éperonnés. Abdomen nettement segmenté, se rétrécit vers l'arrière. Arceaux dorsaux plus foncés que les parties ventrales. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8 mm ; la longueur des ailes 6 mm ; la longueur de la tête 0,6 mm pour une hauteur de 0,7 mm; la longueur du thorax 3 mm pour une hauteur de 2 mm ; la longueur de l'abdomen 6 mm pour une hauteur de 2,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_angustiventris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Notre échantillon se rapproche de Plecia Försteri N. Th., par la forme de l'abdomen ; il s'en distingue pourtant par les ailes qui dépassent longuement l'abdomen.
-À cette espèce appartiennent probablement les échantillons C66, 52, 35, et 64 de la collection du Museum de Marseille, venant de Célas. »[2].
+À cette espèce appartiennent probablement les échantillons C66, 52, 35, et 64 de la collection du Museum de Marseille, venant de Célas. ».
 </t>
         </is>
       </c>
